--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2353086.244220374</v>
+        <v>2428615.91388518</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>82.39467140765059</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>249.4237682275169</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -862,22 +864,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>99.66075074687581</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>309.1107897246175</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>397.0475158885861</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1105,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>338.2584895448982</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>139.1130115060419</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>43.60620160013919</v>
+        <v>8.282002342418858</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9320493409843</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>70.02215316756894</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1819,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>188.4590648403945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>60.25574836862804</v>
       </c>
       <c r="V19" t="n">
-        <v>5.080972206237477</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>132.3095191564939</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>36.39873472479802</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>214.7369185088779</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002187</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>238.2336684417121</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>50.45300511654406</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002187</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>42.96165421080064</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>155.5905547461129</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>96.84207451769373</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>88.60528334072241</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>189.1258500382466</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>181.6292254718857</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>63.26013908351037</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>73.65437485990687</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>940.9219833362306</v>
+        <v>2310.549250954101</v>
       </c>
       <c r="C2" t="n">
-        <v>940.9219833362306</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D2" t="n">
-        <v>940.9219833362306</v>
+        <v>1583.321035406939</v>
       </c>
       <c r="E2" t="n">
-        <v>555.1337307379863</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>786.546878019087</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.9219833362306</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4428,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="T4" t="n">
-        <v>598.0446400632119</v>
+        <v>2077.988902792793</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1487.242648509747</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C5" t="n">
-        <v>1118.280131569335</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>782.1957986415193</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1873.842488573869</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4638,22 +4640,22 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4753,16 +4755,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>2355.473849053679</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.008090792599</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>508.6979412980804</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>508.6979412980804</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>535.9356573576496</v>
+        <v>690.3464061283202</v>
       </c>
       <c r="T10" t="n">
-        <v>308.6274700262513</v>
+        <v>690.3464061283202</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>690.3464061283202</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>690.3464061283202</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>690.3464061283202</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>690.3464061283202</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>690.3464061283202</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5123,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.8027887886592</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>395.5481934947356</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>709.4512536188989</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>709.4512536188989</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>709.4512536188989</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>709.4512536188989</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5257,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,19 +5269,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5309,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>799.8610847926847</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>630.9249018647778</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5467,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305959</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.3337308726216</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.5250474102529</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C19" t="n">
-        <v>394.5250474102529</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D19" t="n">
-        <v>394.5250474102529</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>903.2713495332425</v>
       </c>
       <c r="V19" t="n">
-        <v>1093.580233175471</v>
+        <v>648.5868613273557</v>
       </c>
       <c r="W19" t="n">
-        <v>804.16306313851</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X19" t="n">
-        <v>576.1735122404926</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y19" t="n">
-        <v>576.1735122404926</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5734,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,16 +5831,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>181.9314425141218</v>
       </c>
       <c r="K21" t="n">
-        <v>485.4047026089419</v>
+        <v>592.8217113586345</v>
       </c>
       <c r="L21" t="n">
-        <v>732.1698305154059</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1039.489963795367</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
         <v>1843.901542059518</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>991.0842369787848</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="C22" t="n">
-        <v>822.1480540508779</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>381.281078858296</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>381.281078858296</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>381.281078858296</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X22" t="n">
-        <v>1172.732701809025</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y22" t="n">
-        <v>1172.732701809025</v>
+        <v>531.3977182706318</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5968,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,7 +5992,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6075,19 +6077,19 @@
         <v>3158.47475800178</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281742</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945775</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164472</v>
+        <v>4242.791036724022</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>4763.091658459769</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R24" t="n">
         <v>4860.854573014292</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347409</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>1058.224877055613</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W25" t="n">
-        <v>768.8077070186521</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X25" t="n">
-        <v>540.8181561206347</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>540.8181561206347</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,10 +6214,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6227,7 +6229,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,13 +6241,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>4744.160657054475</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>4520.375241843982</v>
       </c>
       <c r="U28" t="n">
-        <v>1258.27620142486</v>
+        <v>4231.24660305754</v>
       </c>
       <c r="V28" t="n">
-        <v>1003.591713218973</v>
+        <v>3976.562114851653</v>
       </c>
       <c r="W28" t="n">
-        <v>714.1745431820127</v>
+        <v>3687.144944814692</v>
       </c>
       <c r="X28" t="n">
-        <v>486.1849922839954</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6479,34 +6481,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571611</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636253</v>
+        <v>3443.999848753676</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>3751.319982033638</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>4081.182609697671</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916677</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916677</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916677</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916677</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916677</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4744.160657054477</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4520.375241843984</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4231.246603057542</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>3976.562114851655</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>3687.144944814694</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X31" t="n">
-        <v>3459.155393916677</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916677</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>420.3226148324578</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C34" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>252.1472931522784</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247865</v>
+        <v>1030.758980524051</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383447</v>
+        <v>741.6303417376097</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324578</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="W34" t="n">
-        <v>420.3226148324578</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="X34" t="n">
-        <v>420.3226148324578</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y34" t="n">
-        <v>420.3226148324578</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,19 +6949,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>318.009670603816</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028589</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028589</v>
+        <v>785.4801130615103</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028589</v>
+        <v>616.5439301336035</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028589</v>
+        <v>466.4272907212677</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028589</v>
+        <v>466.4272907212677</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>466.4272907212677</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>298.2519690410883</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028589</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028589</v>
+        <v>967.1285778917501</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822478</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636253</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3778.208216256919</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="C43" t="n">
-        <v>3609.272033329012</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929847</v>
+        <v>1307.880058398057</v>
       </c>
       <c r="T43" t="n">
-        <v>4437.149147719352</v>
+        <v>1084.094643187563</v>
       </c>
       <c r="U43" t="n">
-        <v>4253.685283606336</v>
+        <v>1084.094643187563</v>
       </c>
       <c r="V43" t="n">
-        <v>3999.000795400449</v>
+        <v>1084.094643187563</v>
       </c>
       <c r="W43" t="n">
-        <v>3999.000795400449</v>
+        <v>794.6774731506025</v>
       </c>
       <c r="X43" t="n">
-        <v>3999.000795400449</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="Y43" t="n">
-        <v>3778.208216256919</v>
+        <v>566.6879222525852</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571611</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636253</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>732.6596981028219</v>
+        <v>441.5869961536295</v>
       </c>
       <c r="C46" t="n">
-        <v>563.7235151749151</v>
+        <v>272.6508132257226</v>
       </c>
       <c r="D46" t="n">
-        <v>563.7235151749151</v>
+        <v>272.6508132257226</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>272.6508132257226</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>272.6508132257226</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>272.6508132257226</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557903</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557903</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.499100520942</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.100742076592</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="Y46" t="n">
-        <v>914.3081629330617</v>
+        <v>623.2354609838692</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8532,7 +8534,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>73.53204524670076</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8939,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>43.65987261462463</v>
       </c>
       <c r="K21" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>169.2863157167176</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776731</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9890,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776733</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298287</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>73.64859338270662</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>36.31477175764351</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>78.59331985064341</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23707,10 +23709,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>30.12558851170024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>225.9816040299493</v>
       </c>
       <c r="V19" t="n">
-        <v>247.0566711175905</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>34.18404930688365</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>189.3109206642391</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24379,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>37.40072481495005</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338454</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>48.00368395686527</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>116.0405633468335</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338454</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>105.9521741567355</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>65.95700631227632</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>124.7054865406955</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>60.30854502681372</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25801,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>8.79495994535668</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>104.6081269266916</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>85.65368928402575</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26077,16 +26079,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>152.0552805291303</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>828289.9634146203</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>828289.9634146203</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="G2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="I2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="F2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="H2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>547440.6836327923</v>
       </c>
-      <c r="K2" t="n">
-        <v>547440.683632792</v>
-      </c>
       <c r="L2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="O2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,37 +26426,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="G4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>7916.731656007481</v>
       </c>
-      <c r="J4" t="n">
-        <v>7916.731656007479</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007414</v>
-      </c>
       <c r="L4" t="n">
-        <v>7916.731656007413</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.73165600742</v>
+        <v>7916.731656007482</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.73165600742</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007483</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26485,7 +26487,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246014.7670888757</v>
+        <v>-246014.767088876</v>
       </c>
       <c r="C6" t="n">
-        <v>343953.1121256684</v>
+        <v>343953.1121256688</v>
       </c>
       <c r="D6" t="n">
-        <v>343953.1121256684</v>
+        <v>343953.1121256686</v>
       </c>
       <c r="E6" t="n">
-        <v>-77623.41044882801</v>
+        <v>-77623.41044882816</v>
       </c>
       <c r="F6" t="n">
+        <v>447536.6260280684</v>
+      </c>
+      <c r="G6" t="n">
         <v>447536.6260280678</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>447536.6260280681</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>447536.626028068</v>
       </c>
-      <c r="I6" t="n">
-        <v>447536.6260280678</v>
-      </c>
       <c r="J6" t="n">
-        <v>271113.4068354752</v>
+        <v>271113.4068354751</v>
       </c>
       <c r="K6" t="n">
-        <v>447536.6260280678</v>
+        <v>447536.6260280682</v>
       </c>
       <c r="L6" t="n">
-        <v>447536.6260280678</v>
+        <v>447536.6260280681</v>
       </c>
       <c r="M6" t="n">
-        <v>312735.6107942308</v>
+        <v>312735.6107942309</v>
       </c>
       <c r="N6" t="n">
-        <v>447536.6260280679</v>
+        <v>447536.6260280681</v>
       </c>
       <c r="O6" t="n">
         <v>447536.6260280681</v>
       </c>
       <c r="P6" t="n">
-        <v>447536.626028068</v>
+        <v>447536.6260280678</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26753,31 +26755,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26814,22 +26816,22 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>324.4813743340608</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>164.3604017932781</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>125.3743547112085</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>45.5722518960655</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>16.73665413220891</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27825,19 +27827,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>96.92615468724685</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>10.98247917251484</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>247.1249271500117</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28053,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>168.5393373498797</v>
+        <v>203.8635366076001</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29764,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29940,7 +29942,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-2.207398955824477e-12</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33053,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33527,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33764,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34001,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34238,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34475,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>383.956422297167</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35659,7 +35661,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>85.57005156953132</v>
       </c>
       <c r="K21" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>451.6500179578258</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091978</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336976</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056001</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>410.0098272511729</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>224.2240319706459</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2428615.91388518</v>
+        <v>2421598.898993467</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>249.4237682275169</v>
+        <v>298.1689170259747</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>155.3197306044665</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>397.0475158885861</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>168.0422690726465</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>163.9206648785249</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>139.1130115060419</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>8.282002342418858</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>70.02215316756894</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>60.25574836862804</v>
+        <v>57.5645290049876</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>132.3095191564939</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>104.6354350586142</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002187</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>50.45300511654406</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>155.5905547461129</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>88.60528334072241</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>58.43974171833481</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.1258500382466</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>63.26013908351037</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2310.549250954101</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C2" t="n">
-        <v>1941.586734013689</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="D2" t="n">
-        <v>1583.321035406939</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.532782808694</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="F2" t="n">
-        <v>786.546878019087</v>
+        <v>508.5896820939362</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018223</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018223</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2697.149091018223</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4430,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871845</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>2519.585513306029</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>2305.297090124192</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>2077.988902792793</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>2022.963088632153</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>2022.963088632153</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>2022.963088632153</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X4" t="n">
-        <v>2022.963088632153</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632153</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1920.409918978289</v>
+        <v>1359.546482223454</v>
       </c>
       <c r="C5" t="n">
-        <v>1551.447402037877</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D5" t="n">
-        <v>1193.181703431127</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>1193.181703431127</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>782.1957986415193</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2472.38073581877</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2119.612080548655</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1746.146322287575</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042411</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.476704221264</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>1563.476704221264</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.958510780817</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>508.6979412980804</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C10" t="n">
-        <v>508.6979412980804</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>690.3464061283202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>690.3464061283202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>690.3464061283202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>690.3464061283202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>690.3464061283202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>690.3464061283202</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>690.3464061283202</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M12" t="n">
-        <v>1039.489963795367</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N12" t="n">
         <v>1843.901542059518</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5275,19 +5275,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5345,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>799.8610847926847</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>630.9249018647778</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y16" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,13 +5533,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2302.237516093321</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>903.2713495332425</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V19" t="n">
-        <v>648.5868613273557</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>359.1696912903951</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>359.1696912903951</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>359.1696912903951</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5749,34 +5749,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>181.9314425141218</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>592.8217113586345</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115523</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>531.3977182706318</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>531.3977182706318</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>381.281078858296</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>381.281078858296</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>381.281078858296</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706318</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>531.3977182706318</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>531.3977182706318</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5986,16 +5986,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>4242.791036724022</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>4763.091658459769</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324574</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>130.9054447954967</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6223,7 +6223,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6232,43 +6232,43 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916675</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916675</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916675</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916675</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1393.223911912834</v>
       </c>
       <c r="S28" t="n">
-        <v>4744.160657054475</v>
+        <v>1393.223911912834</v>
       </c>
       <c r="T28" t="n">
-        <v>4520.375241843982</v>
+        <v>1393.223911912834</v>
       </c>
       <c r="U28" t="n">
-        <v>4231.24660305754</v>
+        <v>1393.223911912834</v>
       </c>
       <c r="V28" t="n">
-        <v>3976.562114851653</v>
+        <v>1393.223911912834</v>
       </c>
       <c r="W28" t="n">
-        <v>3687.144944814692</v>
+        <v>1393.223911912834</v>
       </c>
       <c r="X28" t="n">
-        <v>3459.155393916675</v>
+        <v>1393.223911912834</v>
       </c>
       <c r="Y28" t="n">
-        <v>3459.155393916675</v>
+        <v>1172.431332769303</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,37 +6448,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6505,10 +6505,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>3443.999848753676</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>3751.319982033638</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N30" t="n">
-        <v>4081.182609697671</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O30" t="n">
-        <v>4360.722674916368</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.499100520942</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>981.5095496229244</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6870,40 +6870,40 @@
         <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035277</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1030.758980524051</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>741.6303417376097</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>486.9458535317228</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>486.9458535317228</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>486.9458535317228</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6937,13 +6937,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1271.749344574921</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1017.064856369034</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="38">
@@ -7162,25 +7162,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7201,10 +7201,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>785.4801130615103</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C40" t="n">
-        <v>616.5439301336035</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>466.4272907212677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>466.4272907212677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>466.4272907212677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>298.2519690410883</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>1187.92115703528</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>1187.92115703528</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W40" t="n">
-        <v>1187.92115703528</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X40" t="n">
-        <v>1187.92115703528</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y40" t="n">
-        <v>967.1285778917501</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1595.645765494011</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1925.508393158044</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1307.880058398057</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1084.094643187563</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1084.094643187563</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1084.094643187563</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>794.6774731506025</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>485.5200852635876</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>441.5869961536295</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>272.6508132257226</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>272.6508132257226</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>272.6508132257226</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>272.6508132257226</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>272.6508132257226</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1098.712528333286</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>844.0280401273993</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>844.0280401273993</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>844.0280401273993</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>623.2354609838692</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142012</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>288.4091825776764</v>
       </c>
       <c r="M12" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P18" t="n">
-        <v>29.47535963978262</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>43.65987261462463</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>169.2863157167176</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776733</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10673,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10910,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>127.6461250100647</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>73.64859338270662</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>51.71984429841044</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>78.59331985064341</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>225.9816040299493</v>
+        <v>228.6728233935897</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.18404930688365</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315997</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>5.328917345178638</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338454</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>116.0405633468335</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>65.95700631227632</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25368,7 +25368,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>60.30854502681372</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>167.2699136707024</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>8.79495994535668</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>85.65368928402575</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>828289.9634146203</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="13">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049988</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049991</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="F2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="F2" t="n">
-        <v>547440.6836327924</v>
-      </c>
       <c r="G2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="H2" t="n">
         <v>547440.6836327919</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327922</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327921</v>
@@ -26340,22 +26340,22 @@
         <v>547440.6836327922</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="L2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327917</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327917</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.683632792</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
@@ -26429,37 +26429,37 @@
         <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007539</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007544</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-246014.767088876</v>
       </c>
       <c r="C6" t="n">
-        <v>343953.1121256688</v>
+        <v>343953.1121256686</v>
       </c>
       <c r="D6" t="n">
-        <v>343953.1121256686</v>
+        <v>343953.1121256681</v>
       </c>
       <c r="E6" t="n">
-        <v>-77623.41044882816</v>
+        <v>-78598.00170854945</v>
       </c>
       <c r="F6" t="n">
-        <v>447536.6260280684</v>
+        <v>446562.0347683459</v>
       </c>
       <c r="G6" t="n">
-        <v>447536.6260280678</v>
+        <v>446562.0347683463</v>
       </c>
       <c r="H6" t="n">
-        <v>447536.6260280681</v>
+        <v>446562.034768346</v>
       </c>
       <c r="I6" t="n">
-        <v>447536.626028068</v>
+        <v>446562.0347683463</v>
       </c>
       <c r="J6" t="n">
-        <v>271113.4068354751</v>
+        <v>270138.8155757535</v>
       </c>
       <c r="K6" t="n">
-        <v>447536.6260280682</v>
+        <v>446562.0347683465</v>
       </c>
       <c r="L6" t="n">
-        <v>447536.6260280681</v>
+        <v>446562.0347683463</v>
       </c>
       <c r="M6" t="n">
-        <v>312735.6107942309</v>
+        <v>311761.0195345089</v>
       </c>
       <c r="N6" t="n">
-        <v>447536.6260280681</v>
+        <v>446562.0347683462</v>
       </c>
       <c r="O6" t="n">
-        <v>447536.6260280681</v>
+        <v>446562.034768346</v>
       </c>
       <c r="P6" t="n">
-        <v>447536.6260280678</v>
+        <v>446562.0347683462</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>164.3604017932781</v>
+        <v>115.6152529948203</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458445</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>16.73665413220891</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>159.7099893974884</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>10.49504793044667</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>247.1249271500117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>203.8635366076001</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29468,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29942,7 +29942,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-2.207398955824477e-12</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047524</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337006</v>
       </c>
       <c r="M12" t="n">
-        <v>383.956422297167</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337001</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P18" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>85.57005156953132</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>451.6500179578258</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36764,16 +36764,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778055997</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336976</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37238,16 +37238,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056001</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37393,19 +37393,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37630,19 +37630,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>410.0098272511729</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>224.2240319706459</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2421598.898993467</v>
+        <v>2426538.161842501</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>155.3197306044665</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>168.0422690726465</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>151.1318884952449</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>28.11374845278275</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>300.2994412657502</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
-        <v>163.9206648785249</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>43.31785343913975</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>38.85099796338733</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>45.21952718910648</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1660,13 +1660,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>127.6049065470966</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>57.5645290049876</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847138</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>27.26009267756244</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>104.6354350586142</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>79.25260017038984</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2851,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,16 +3009,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>24.98000491003302</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>5.562624396424693</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>203.9838208752072</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>58.43974171833481</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>85.13671547863082</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532058</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942401</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942401</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5654064942401</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>550.5654064942401</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223454</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2472.38073581877</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2119.612080548655</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="X5" t="n">
-        <v>1746.146322287575</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="Y5" t="n">
-        <v>1746.146322287575</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="6">
@@ -4664,13 +4664,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117053</v>
+        <v>551.8181649141598</v>
       </c>
       <c r="F7" t="n">
-        <v>283.209303713795</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521274</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.7744035713887</v>
+        <v>378.1446555862803</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2531.572661847995</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2531.572661847995</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U8" t="n">
-        <v>2277.810876486087</v>
+        <v>2212.181128500979</v>
       </c>
       <c r="V8" t="n">
-        <v>1946.747989142516</v>
+        <v>1881.118241157408</v>
       </c>
       <c r="W8" t="n">
-        <v>1593.979333872402</v>
+        <v>1528.349585887294</v>
       </c>
       <c r="X8" t="n">
-        <v>1220.513575611322</v>
+        <v>1154.883827626214</v>
       </c>
       <c r="Y8" t="n">
-        <v>830.3742436355105</v>
+        <v>764.7444956504021</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69838933464703</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>559.192801278528</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661923</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661923</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>262.1862143682819</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>93.18641410661431</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>93.18641410661431</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>93.18641410661431</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115524</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395486</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>213.9110074201014</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609662</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550793</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181187</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201014</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.9110074201014</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,19 +5299,19 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>826.2092985685065</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028583</v>
+        <v>598.2197476704891</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,13 +5533,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1017.064856369034</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,13 +5770,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,16 +5819,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256434</v>
@@ -5837,13 +5837,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>124.7525386093388</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>124.7525386093388</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>124.7525386093388</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>124.7525386093388</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>124.7525386093388</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028583</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>306.4010034395785</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6059,34 +6059,34 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6226,13 +6226,13 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>990.7828679390639</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C28" t="n">
-        <v>821.846685011157</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D28" t="n">
-        <v>671.7300455988212</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E28" t="n">
-        <v>523.8169520164281</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028583</v>
@@ -6396,40 +6396,40 @@
         <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R28" t="n">
-        <v>1393.223911912834</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S28" t="n">
-        <v>1393.223911912834</v>
+        <v>1187.921157035276</v>
       </c>
       <c r="T28" t="n">
-        <v>1393.223911912834</v>
+        <v>964.1357418247821</v>
       </c>
       <c r="U28" t="n">
-        <v>1393.223911912834</v>
+        <v>675.0071030383403</v>
       </c>
       <c r="V28" t="n">
-        <v>1393.223911912834</v>
+        <v>675.0071030383403</v>
       </c>
       <c r="W28" t="n">
-        <v>1393.223911912834</v>
+        <v>675.0071030383403</v>
       </c>
       <c r="X28" t="n">
-        <v>1393.223911912834</v>
+        <v>594.9539715530981</v>
       </c>
       <c r="Y28" t="n">
-        <v>1172.431332769303</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,31 +6448,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201016</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6742,10 +6742,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819269</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6964226305959</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.9038434870658</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>675.007103038344</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>675.007103038344</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>615.9770608986119</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>1158.235100050368</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>709.4529700088207</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7672,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,31 +7824,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451747</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>288.4091825776764</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776758</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>15.83804904622903</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,16 +9485,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>29.47535963978268</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>29.47535963978268</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>29.47535963978268</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>29.47535963978268</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>29.47535963978268</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>51.71984429841044</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>103.3959458291059</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>158.9180917894944</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,19 +23940,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>228.6728233935897</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>139.2334757858151</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>50.96659166315997</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.328917345178638</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>146.4570552186473</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>200.7296504790041</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>104.8566210678473</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>21.72583451382997</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>167.2699136707024</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>201.3862828579602</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>82.3938331833852</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="14">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="F2" t="n">
+        <v>547440.6836327926</v>
+      </c>
+      <c r="G2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="H2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="G2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>547440.6836327919</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327921</v>
       </c>
       <c r="J2" t="n">
         <v>547440.6836327922</v>
@@ -26346,7 +26346,7 @@
         <v>547440.6836327921</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.6836327917</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="N2" t="n">
         <v>547440.683632792</v>
@@ -26355,7 +26355,7 @@
         <v>547440.6836327917</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327919</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007539</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007544</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
@@ -26453,13 +26453,13 @@
         <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007486</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871661</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246014.767088876</v>
+        <v>-246014.7670888758</v>
       </c>
       <c r="C6" t="n">
         <v>343953.1121256686</v>
       </c>
       <c r="D6" t="n">
-        <v>343953.1121256681</v>
+        <v>343953.1121256683</v>
       </c>
       <c r="E6" t="n">
-        <v>-78598.00170854945</v>
+        <v>-77720.86957479987</v>
       </c>
       <c r="F6" t="n">
-        <v>446562.0347683459</v>
+        <v>447439.1669020963</v>
       </c>
       <c r="G6" t="n">
-        <v>446562.0347683463</v>
+        <v>447439.1669020961</v>
       </c>
       <c r="H6" t="n">
-        <v>446562.034768346</v>
+        <v>447439.1669020957</v>
       </c>
       <c r="I6" t="n">
-        <v>446562.0347683463</v>
+        <v>447439.1669020954</v>
       </c>
       <c r="J6" t="n">
-        <v>270138.8155757535</v>
+        <v>271015.9477095033</v>
       </c>
       <c r="K6" t="n">
-        <v>446562.0347683465</v>
+        <v>447439.166902096</v>
       </c>
       <c r="L6" t="n">
-        <v>446562.0347683463</v>
+        <v>447439.1669020958</v>
       </c>
       <c r="M6" t="n">
-        <v>311761.0195345089</v>
+        <v>312638.1516682588</v>
       </c>
       <c r="N6" t="n">
-        <v>446562.0347683462</v>
+        <v>447439.1669020957</v>
       </c>
       <c r="O6" t="n">
-        <v>446562.034768346</v>
+        <v>447439.1669020955</v>
       </c>
       <c r="P6" t="n">
-        <v>446562.0347683462</v>
+        <v>447439.1669020955</v>
       </c>
     </row>
   </sheetData>
@@ -26740,25 +26740,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,43 +26965,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.410605131648481e-13</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99007165458445</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>159.7099893974884</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>198.1090802221682</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>120.5017245654296</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>96.50703242634987</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>64.97345050525735</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>10.49504793044667</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>123.9289676594881</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>6.34896122514963</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29274,22 +29274,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.193711796076968e-12</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29468,10 +29468,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>-3.959144123655279e-12</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355116</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875337006</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337001</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>222.9314639777537</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315246</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36764,10 +36764,10 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778055997</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515205989</v>
       </c>
       <c r="P28" t="n">
         <v>178.3836006118007</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
